--- a/meta/en/12-4-2.xlsx
+++ b/meta/en/12-4-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -100,22 +100,7 @@
     <t xml:space="preserve">12.4 By 2020, achieve the environmentally sound management of chemicals and all wastes throughout their life cycle, in accordance with agreed international frameworks, and significantly reduce their release to air, water and soil in order to minimize their adverse impacts on human health and the environment </t>
   </si>
   <si>
-    <t xml:space="preserve">12.4.2 Hazardous waste generated per capita and proportion of hazardous waste treated, by type of treatment </t>
-  </si>
-  <si>
-    <t>The National Statistical Committee of the Kyrgyz Republic (Sustainable Development and Environment Statistics Department)</t>
-  </si>
-  <si>
-    <t>N.K. Kerimalieva</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Hazardous waste generation is the quantity of production and consumption wastes of 1-3 hazard classes generated during a certain period. Hazardous waste (other than radioactive waste) contain any hazardous substances (such as toxic, infectious, explosive, flammable, highly reactive) in a quantity and in a form to pose an immediate or potential danger to human health or environment, either alone or in contact with others.</t>
@@ -147,18 +132,41 @@
   </si>
   <si>
     <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Mambetaliev T.A.</t>
+  </si>
+  <si>
+    <t>The National Statistical Committee of the Kyrgyz Republic (Department of Digital Development and Sustainable Development Statistics)</t>
+  </si>
+  <si>
+    <t>(0312) 62 56 07</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>12.4.2 (a) Hazardous waste generated per capita; and (b) proportion of hazardous waste treated, by type of treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,30 +241,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -568,7 +584,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,8 +634,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,15 +651,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +711,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +719,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -717,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
